--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza5\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C6ABCB-A397-4522-9AFB-E2F19F965C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40F025-47BE-4602-8F6E-7372E8E12D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39585" yWindow="6015" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -725,9 +725,6 @@
     <xf numFmtId="170" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="104">
@@ -1350,7 +1350,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:H4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1368,211 +1368,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="27" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="28"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="29"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="2:21" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="48" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="31" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1580,53 +1580,53 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="24" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13" t="s">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="13" t="s">
+      <c r="U8" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1634,12 +1634,12 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:21" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="24" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="6"/>
@@ -1649,70 +1649,70 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:21" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="19" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza5\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza6\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC40F025-47BE-4602-8F6E-7372E8E12D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826FB0A-4DD9-49C7-9ECE-83D5BE4DA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Composicion_Items">Hoja1!$B$6:$U$7</definedName>
+    <definedName name="Composicion_Items">Hoja1!$B$7:$U$8</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Energía
 (MMBTU)</t>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>LOTE VI</t>
+  </si>
+  <si>
+    <t>GAS NATURAL ASOCIADO - PETROPERU</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t>GNA: Gas Natural Asociado, GNS: Gas Natural Seco.</t>
+  </si>
+  <si>
+    <t>GLP: Gas Licuado de Petróleo, CGN: Condensado de Gas Natural.</t>
+  </si>
+  <si>
+    <t>MONTO
+(US$)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +288,7 @@
     <numFmt numFmtId="171" formatCode="0.000"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +352,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF3F4254"/>
+      <name val="Liberation-Regular"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,14 +377,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -597,6 +612,32 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -706,14 +747,8 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -746,9 +781,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="4" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,12 +788,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,9 +800,21 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,6 +827,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,15 +839,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,14 +872,29 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="17" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="104">
@@ -975,13 +1022,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1150620</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1615440</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>93530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1346,14 +1393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -1367,369 +1414,415 @@
     <col min="20" max="20" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="2:21" ht="27" customHeight="1">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U1" s="26"/>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickBot="1">
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="2:21" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="19" t="s">
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+    </row>
+    <row r="4" spans="2:21" ht="29.4" customHeight="1" thickBot="1">
       <c r="C4" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="47"/>
+      <c r="I4" s="44" t="s">
+        <v>7</v>
+      </c>
       <c r="J4" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="2:21" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="2:21" ht="15" thickBot="1">
+      <c r="C5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="2:21" ht="58.2" thickBot="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="14" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="49" t="s">
+    <row r="7" spans="2:21" ht="15" thickBot="1">
+      <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="2:21" ht="15" thickBot="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1">
+      <c r="C9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="23" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="23" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12" t="s">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="U9" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="2:21" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="44" t="s">
+    <row r="10" spans="2:21">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:21" ht="22.8" customHeight="1">
+      <c r="B12" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:21" ht="24" customHeight="1" thickBot="1">
+      <c r="B13" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:21" ht="16.8" customHeight="1" thickBot="1">
+      <c r="B14" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="24" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-    </row>
-    <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:21" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:21" ht="15" thickBot="1">
+      <c r="B15" s="1"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="2:21" ht="29.4" thickBot="1">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="43.8" customHeight="1" thickBot="1">
+      <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="18" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="39" t="s">
+    <row r="18" spans="2:5" ht="49.8" customHeight="1" thickBot="1">
+      <c r="B18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="18" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="1"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B21:D21"/>
+  <mergeCells count="17">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="C1:S2"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="C5:H5"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza6\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826FB0A-4DD9-49C7-9ECE-83D5BE4DA356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E39F279-F2F6-4898-85A9-33F23F312335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Energía
 (MMBTU)</t>
@@ -206,12 +206,6 @@
   </si>
   <si>
     <t>{{Observacion1}}</t>
-  </si>
-  <si>
-    <t>{{Observacion2}}</t>
-  </si>
-  <si>
-    <t>{{Observacion3}}</t>
   </si>
   <si>
     <t>UNNA-PETROPERU</t>
@@ -747,7 +741,7 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -812,8 +806,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -881,20 +884,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="104">
@@ -1393,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U24"/>
+  <dimension ref="B1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1415,52 +1406,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="27" customHeight="1">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="26"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="2:21" ht="15" thickBot="1">
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="27"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1">
       <c r="C3" s="23" t="s">
@@ -1488,38 +1479,38 @@
       <c r="U3" s="21"/>
     </row>
     <row r="4" spans="2:21" ht="29.4" customHeight="1" thickBot="1">
-      <c r="C4" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="44" t="s">
+      <c r="C4" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="15" thickBot="1">
-      <c r="C5" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="30" t="s">
+      <c r="C5" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="2:21" ht="58.2" thickBot="1">
       <c r="B6" s="2"/>
@@ -1541,7 +1532,7 @@
       <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="12" t="s">
         <v>8</v>
       </c>
@@ -1584,28 +1575,28 @@
         <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="H7" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>26</v>
@@ -1651,22 +1642,22 @@
     </row>
     <row r="9" spans="2:21" ht="15" thickBot="1">
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="18" t="s">
@@ -1695,38 +1686,38 @@
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:21" ht="22.8" customHeight="1">
-      <c r="B12" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="50"/>
+      <c r="B12" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="26"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:21" ht="24" customHeight="1" thickBot="1">
-      <c r="B13" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:21" ht="16.8" customHeight="1" thickBot="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="19" t="s">
         <v>42</v>
       </c>
@@ -1737,77 +1728,109 @@
     </row>
     <row r="15" spans="2:21" ht="15" thickBot="1">
       <c r="B15" s="1"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="2:21" ht="29.4" thickBot="1">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="43.8" customHeight="1" thickBot="1">
-      <c r="B17" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="43.8" customHeight="1" thickBot="1">
+      <c r="B17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="49.8" customHeight="1" thickBot="1">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="2:9" ht="49.8" customHeight="1" thickBot="1">
+      <c r="B18" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:9">
       <c r="B19" s="1"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:9">
       <c r="B20" s="1"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:9">
       <c r="B21" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:I26"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="C1:S2"/>
@@ -1815,14 +1838,11 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B23:D23"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza6\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E39F279-F2F6-4898-85A9-33F23F312335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA940D-93D9-43DC-8C00-E79C0749E8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,7 +885,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="104">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza6\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EA940D-93D9-43DC-8C00-E79C0749E8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384E9D6-7113-44AE-A70D-82DE300D23A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,11 +812,11 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,22 +843,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="3" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="8" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="103" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,7 +884,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1067,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3389</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>872069</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
@@ -1114,6 +1114,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269784</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>178972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4D06FF-C6DD-4C8E-8187-79F004973F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="7734300"/>
+          <a:ext cx="5809524" cy="780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1387,14 +1431,14 @@
   <dimension ref="B1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:I26"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
@@ -1692,20 +1736,20 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:21" ht="22.8" customHeight="1">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="2:21">
+      <c r="B12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="7"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:21" ht="24" customHeight="1" thickBot="1">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:21" ht="15" thickBot="1">
+      <c r="B13" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="25"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1739,7 +1783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="43.8" customHeight="1" thickBot="1">
+    <row r="17" spans="2:9" ht="15" thickBot="1">
       <c r="B17" s="36" t="s">
         <v>47</v>
       </c>
@@ -1749,7 +1793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="49.8" customHeight="1" thickBot="1">
+    <row r="18" spans="2:9" ht="15" thickBot="1">
       <c r="B18" s="39" t="s">
         <v>48</v>
       </c>
@@ -1775,62 +1819,61 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="B22:I26"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="C1:S2"/>
@@ -1843,6 +1886,7 @@
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/BoletadeValorizacionPetroperuLoteVI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B384E9D6-7113-44AE-A70D-82DE300D23A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419876BC-494B-4122-A26D-3E8EAB03455A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1011,56 +1011,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1150620</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1615440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>93530</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD90E5D-3838-499C-A250-15F35D3208AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2110740" y="3954781"/>
-          <a:ext cx="1680210" cy="935539"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1086,7 +1036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1145,7 +1095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1432,21 +1382,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="27" customHeight="1">
@@ -1474,7 +1424,7 @@
       </c>
       <c r="U1" s="29"/>
     </row>
-    <row r="2" spans="2:21" ht="15" thickBot="1">
+    <row r="2" spans="2:21" ht="15.75" thickBot="1">
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="31"/>
@@ -1497,7 +1447,7 @@
       </c>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1">
       <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1472,7 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="2:21" ht="29.4" customHeight="1" thickBot="1">
+    <row r="4" spans="2:21" ht="29.45" customHeight="1" thickBot="1">
       <c r="C4" s="33" t="s">
         <v>64</v>
       </c>
@@ -1540,7 +1490,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1">
+    <row r="5" spans="2:21" ht="15.75" thickBot="1">
       <c r="C5" s="33" t="s">
         <v>63</v>
       </c>
@@ -1556,7 +1506,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="2:21" ht="58.2" thickBot="1">
+    <row r="6" spans="2:21" ht="60.75" thickBot="1">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
         <v>3</v>
@@ -1614,7 +1564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1">
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1">
+    <row r="8" spans="2:21" ht="15.75" thickBot="1">
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1684,7 +1634,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1">
       <c r="C9" s="10" t="s">
         <v>62</v>
       </c>
@@ -1744,7 +1694,7 @@
       <c r="D12" s="50"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:21" ht="15" thickBot="1">
+    <row r="13" spans="2:21" ht="15.75" thickBot="1">
       <c r="B13" s="26" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1706,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:21" ht="16.8" customHeight="1" thickBot="1">
+    <row r="14" spans="2:21" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="B14" s="44" t="s">
         <v>43</v>
       </c>
@@ -1770,12 +1720,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:21" ht="15" thickBot="1">
+    <row r="15" spans="2:21" ht="15.75" thickBot="1">
       <c r="B15" s="1"/>
       <c r="C15" s="42"/>
       <c r="D15" s="43"/>
     </row>
-    <row r="16" spans="2:21" ht="29.4" thickBot="1">
+    <row r="16" spans="2:21" ht="30.75" thickBot="1">
       <c r="B16" s="1"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1783,7 +1733,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1">
+    <row r="17" spans="2:9" ht="15.75" thickBot="1">
       <c r="B17" s="36" t="s">
         <v>47</v>
       </c>
@@ -1793,7 +1743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="15" thickBot="1">
+    <row r="18" spans="2:9" ht="15.75" thickBot="1">
       <c r="B18" s="39" t="s">
         <v>48</v>
       </c>
